--- a/data-raw/goulden.splitsplit.xlsx
+++ b/data-raw/goulden.splitsplit.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BFFED5-2730-42F8-9913-C94D87563552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="7776" activeTab="1"/>
+    <workbookView xWindow="4040" yWindow="3000" windowWidth="7590" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,14 +82,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -121,7 +130,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -193,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -366,16 +375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>64</v>
       </c>
@@ -437,7 +446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>76</v>
       </c>
@@ -499,7 +508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>66</v>
       </c>
@@ -561,7 +570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>54</v>
       </c>
@@ -623,7 +632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>83</v>
       </c>
@@ -685,7 +694,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>51</v>
       </c>
@@ -747,7 +756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>63</v>
       </c>
@@ -809,7 +818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -877,16 +886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1388,16 +1397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1899,16 +1908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
